--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Genesys International Corporation Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Genesys International Corporation Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Yearly Results of Genesys International Corporation(in Rs. Cr.)</t>
   </si>
@@ -161,6 +161,81 @@
   </si>
   <si>
     <t>Mar '24</t>
+  </si>
+  <si>
+    <t>34.55</t>
+  </si>
+  <si>
+    <t>28.14</t>
+  </si>
+  <si>
+    <t>14.99</t>
+  </si>
+  <si>
+    <t>23.92</t>
+  </si>
+  <si>
+    <t>22.11</t>
+  </si>
+  <si>
+    <t>17.60</t>
+  </si>
+  <si>
+    <t>13.93</t>
+  </si>
+  <si>
+    <t>19.33</t>
+  </si>
+  <si>
+    <t>47.02</t>
+  </si>
+  <si>
+    <t>82.88</t>
+  </si>
+  <si>
+    <t>62.06</t>
+  </si>
+  <si>
+    <t>94.85</t>
+  </si>
+  <si>
+    <t>95.99</t>
+  </si>
+  <si>
+    <t>113.75</t>
+  </si>
+  <si>
+    <t>75.12</t>
+  </si>
+  <si>
+    <t>60.27</t>
+  </si>
+  <si>
+    <t>46.96</t>
+  </si>
+  <si>
+    <t>76.68</t>
+  </si>
+  <si>
+    <t>118.89</t>
+  </si>
+  <si>
+    <t>118.79</t>
+  </si>
+  <si>
+    <t>111.78</t>
+  </si>
+  <si>
+    <t>79.56</t>
+  </si>
+  <si>
+    <t>119.63</t>
+  </si>
+  <si>
+    <t>179.91</t>
+  </si>
+  <si>
+    <t>194.47</t>
   </si>
 </sst>
 </file>
@@ -602,14 +677,14 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2">
-        <v>34.55</v>
+      <c r="B2" t="s">
+        <v>49</v>
       </c>
       <c r="C2">
         <v>34.55</v>
       </c>
       <c r="D2">
-        <v>29.37208333333333</v>
+        <v>29.37</v>
       </c>
       <c r="E2">
         <v>0.17</v>
@@ -627,7 +702,7 @@
         <v>5.4</v>
       </c>
       <c r="J2">
-        <v>1.373636363636364</v>
+        <v>1.37</v>
       </c>
       <c r="K2">
         <v>5.4</v>
@@ -654,30 +729,30 @@
         <v>15</v>
       </c>
       <c r="S2">
-        <v>2.805</v>
+        <v>2.8</v>
       </c>
       <c r="T2">
-        <v>2.897142857142857</v>
+        <v>2.9</v>
       </c>
       <c r="U2">
-        <v>2.805</v>
+        <v>2.8</v>
       </c>
       <c r="V2">
-        <v>2.897142857142857</v>
+        <v>2.9</v>
       </c>
       <c r="W2">
-        <v>0.7553333333333332</v>
+        <v>0.76</v>
       </c>
       <c r="X2">
-        <v>42.494</v>
+        <v>42.49</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3">
-        <v>28.14</v>
+      <c r="B3" t="s">
+        <v>50</v>
       </c>
       <c r="C3">
         <v>28.14</v>
@@ -701,7 +776,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="J3">
-        <v>1.373636363636364</v>
+        <v>1.37</v>
       </c>
       <c r="K3">
         <v>8.300000000000001</v>
@@ -728,16 +803,16 @@
         <v>15</v>
       </c>
       <c r="S3">
-        <v>2.805</v>
+        <v>2.8</v>
       </c>
       <c r="T3">
-        <v>2.897142857142857</v>
+        <v>2.9</v>
       </c>
       <c r="U3">
-        <v>2.805</v>
+        <v>2.8</v>
       </c>
       <c r="V3">
-        <v>2.897142857142857</v>
+        <v>2.9</v>
       </c>
       <c r="W3">
         <v>0.33</v>
@@ -750,8 +825,8 @@
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4">
-        <v>14.99</v>
+      <c r="B4" t="s">
+        <v>51</v>
       </c>
       <c r="C4">
         <v>14.99</v>
@@ -775,7 +850,7 @@
         <v>4.5</v>
       </c>
       <c r="J4">
-        <v>1.373636363636364</v>
+        <v>1.37</v>
       </c>
       <c r="K4">
         <v>4.5</v>
@@ -802,16 +877,16 @@
         <v>10</v>
       </c>
       <c r="S4">
-        <v>2.805</v>
+        <v>2.8</v>
       </c>
       <c r="T4">
-        <v>2.897142857142857</v>
+        <v>2.9</v>
       </c>
       <c r="U4">
-        <v>2.805</v>
+        <v>2.8</v>
       </c>
       <c r="V4">
-        <v>2.897142857142857</v>
+        <v>2.9</v>
       </c>
       <c r="W4">
         <v>0.32</v>
@@ -824,8 +899,8 @@
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5">
-        <v>23.92</v>
+      <c r="B5" t="s">
+        <v>52</v>
       </c>
       <c r="C5">
         <v>23.92</v>
@@ -876,16 +951,16 @@
         <v>10</v>
       </c>
       <c r="S5">
-        <v>2.805</v>
+        <v>2.8</v>
       </c>
       <c r="T5">
-        <v>2.897142857142857</v>
+        <v>2.9</v>
       </c>
       <c r="U5">
-        <v>2.805</v>
+        <v>2.8</v>
       </c>
       <c r="V5">
-        <v>2.897142857142857</v>
+        <v>2.9</v>
       </c>
       <c r="W5">
         <v>0.45</v>
@@ -898,8 +973,8 @@
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6">
-        <v>22.11</v>
+      <c r="B6" t="s">
+        <v>53</v>
       </c>
       <c r="C6">
         <v>22.11</v>
@@ -947,19 +1022,19 @@
         <v>47.46</v>
       </c>
       <c r="R6">
-        <v>11.5625</v>
+        <v>11.56</v>
       </c>
       <c r="S6">
-        <v>2.805</v>
+        <v>2.8</v>
       </c>
       <c r="T6">
-        <v>2.897142857142857</v>
+        <v>2.9</v>
       </c>
       <c r="U6">
-        <v>2.805</v>
+        <v>2.8</v>
       </c>
       <c r="V6">
-        <v>2.897142857142857</v>
+        <v>2.9</v>
       </c>
       <c r="W6">
         <v>0.45</v>
@@ -972,8 +1047,8 @@
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="B7">
-        <v>17.6</v>
+      <c r="B7" t="s">
+        <v>54</v>
       </c>
       <c r="C7">
         <v>17.6</v>
@@ -1006,7 +1081,7 @@
         <v>-0.45</v>
       </c>
       <c r="M7">
-        <v>2.248333333333333</v>
+        <v>2.25</v>
       </c>
       <c r="N7">
         <v>-0.45</v>
@@ -1021,19 +1096,19 @@
         <v>46.98</v>
       </c>
       <c r="R7">
-        <v>11.5625</v>
+        <v>11.56</v>
       </c>
       <c r="S7">
-        <v>2.805</v>
+        <v>2.8</v>
       </c>
       <c r="T7">
-        <v>2.897142857142857</v>
+        <v>2.9</v>
       </c>
       <c r="U7">
-        <v>2.805</v>
+        <v>2.8</v>
       </c>
       <c r="V7">
-        <v>2.897142857142857</v>
+        <v>2.9</v>
       </c>
       <c r="W7">
         <v>0.45</v>
@@ -1046,8 +1121,8 @@
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8">
-        <v>13.93</v>
+      <c r="B8" t="s">
+        <v>55</v>
       </c>
       <c r="C8">
         <v>13.93</v>
@@ -1095,19 +1170,19 @@
         <v>47.15</v>
       </c>
       <c r="R8">
-        <v>11.5625</v>
+        <v>11.56</v>
       </c>
       <c r="S8">
-        <v>2.805</v>
+        <v>2.8</v>
       </c>
       <c r="T8">
-        <v>2.897142857142857</v>
+        <v>2.9</v>
       </c>
       <c r="U8">
-        <v>2.805</v>
+        <v>2.8</v>
       </c>
       <c r="V8">
-        <v>2.897142857142857</v>
+        <v>2.9</v>
       </c>
       <c r="W8">
         <v>0.61</v>
@@ -1120,8 +1195,8 @@
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B9">
-        <v>19.33</v>
+      <c r="B9" t="s">
+        <v>56</v>
       </c>
       <c r="C9">
         <v>19.33</v>
@@ -1169,19 +1244,19 @@
         <v>14.54</v>
       </c>
       <c r="R9">
-        <v>11.5625</v>
+        <v>11.56</v>
       </c>
       <c r="S9">
-        <v>2.805</v>
+        <v>2.8</v>
       </c>
       <c r="T9">
-        <v>2.897142857142857</v>
+        <v>2.9</v>
       </c>
       <c r="U9">
-        <v>2.805</v>
+        <v>2.8</v>
       </c>
       <c r="V9">
-        <v>2.897142857142857</v>
+        <v>2.9</v>
       </c>
       <c r="W9">
         <v>0.57</v>
@@ -1194,8 +1269,8 @@
       <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="B10">
-        <v>47.02</v>
+      <c r="B10" t="s">
+        <v>57</v>
       </c>
       <c r="C10">
         <v>47.02</v>
@@ -1246,16 +1321,16 @@
         <v>20</v>
       </c>
       <c r="S10">
-        <v>2.805</v>
+        <v>2.8</v>
       </c>
       <c r="T10">
-        <v>2.897142857142857</v>
+        <v>2.9</v>
       </c>
       <c r="U10">
-        <v>2.805</v>
+        <v>2.8</v>
       </c>
       <c r="V10">
-        <v>2.897142857142857</v>
+        <v>2.9</v>
       </c>
       <c r="W10">
         <v>0.57</v>
@@ -1268,8 +1343,8 @@
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B11">
-        <v>82.88</v>
+      <c r="B11" t="s">
+        <v>58</v>
       </c>
       <c r="C11">
         <v>82.88</v>
@@ -1320,16 +1395,16 @@
         <v>20</v>
       </c>
       <c r="S11">
-        <v>2.805</v>
+        <v>2.8</v>
       </c>
       <c r="T11">
-        <v>2.897142857142857</v>
+        <v>2.9</v>
       </c>
       <c r="U11">
-        <v>2.805</v>
+        <v>2.8</v>
       </c>
       <c r="V11">
-        <v>2.897142857142857</v>
+        <v>2.9</v>
       </c>
       <c r="W11">
         <v>0.76</v>
@@ -1342,8 +1417,8 @@
       <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B12">
-        <v>62.06</v>
+      <c r="B12" t="s">
+        <v>59</v>
       </c>
       <c r="C12">
         <v>62.06</v>
@@ -1394,16 +1469,16 @@
         <v>25</v>
       </c>
       <c r="S12">
-        <v>2.805</v>
+        <v>2.8</v>
       </c>
       <c r="T12">
-        <v>2.897142857142857</v>
+        <v>2.9</v>
       </c>
       <c r="U12">
-        <v>2.805</v>
+        <v>2.8</v>
       </c>
       <c r="V12">
-        <v>2.897142857142857</v>
+        <v>2.9</v>
       </c>
       <c r="W12">
         <v>0.61</v>
@@ -1416,8 +1491,8 @@
       <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="B13">
-        <v>94.84999999999999</v>
+      <c r="B13" t="s">
+        <v>60</v>
       </c>
       <c r="C13">
         <v>94.84999999999999</v>
@@ -1490,8 +1565,8 @@
       <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B14">
-        <v>95.98999999999999</v>
+      <c r="B14" t="s">
+        <v>61</v>
       </c>
       <c r="C14">
         <v>95.98999999999999</v>
@@ -1564,8 +1639,8 @@
       <c r="A15" t="s">
         <v>37</v>
       </c>
-      <c r="B15">
-        <v>113.75</v>
+      <c r="B15" t="s">
+        <v>62</v>
       </c>
       <c r="C15">
         <v>113.75</v>
@@ -1638,8 +1713,8 @@
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16">
-        <v>75.12</v>
+      <c r="B16" t="s">
+        <v>63</v>
       </c>
       <c r="C16">
         <v>75.12</v>
@@ -1712,8 +1787,8 @@
       <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17">
-        <v>60.27</v>
+      <c r="B17" t="s">
+        <v>64</v>
       </c>
       <c r="C17">
         <v>60.27</v>
@@ -1786,8 +1861,8 @@
       <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18">
-        <v>46.96</v>
+      <c r="B18" t="s">
+        <v>65</v>
       </c>
       <c r="C18">
         <v>46.96</v>
@@ -1850,18 +1925,18 @@
         <v>1.4</v>
       </c>
       <c r="W18">
-        <v>0.7553333333333332</v>
+        <v>0.76</v>
       </c>
       <c r="X18">
-        <v>42.494</v>
+        <v>42.49</v>
       </c>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B19">
-        <v>76.68000000000001</v>
+      <c r="B19" t="s">
+        <v>66</v>
       </c>
       <c r="C19">
         <v>76.68000000000001</v>
@@ -1924,18 +1999,18 @@
         <v>6</v>
       </c>
       <c r="W19">
-        <v>0.7553333333333332</v>
+        <v>0.76</v>
       </c>
       <c r="X19">
-        <v>42.494</v>
+        <v>42.49</v>
       </c>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20">
-        <v>118.89</v>
+      <c r="B20" t="s">
+        <v>67</v>
       </c>
       <c r="C20">
         <v>118.89</v>
@@ -1998,18 +2073,18 @@
         <v>9.66</v>
       </c>
       <c r="W20">
-        <v>0.7553333333333332</v>
+        <v>0.76</v>
       </c>
       <c r="X20">
-        <v>42.494</v>
+        <v>42.49</v>
       </c>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21">
-        <v>118.79</v>
+      <c r="B21" t="s">
+        <v>68</v>
       </c>
       <c r="C21">
         <v>118.79</v>
@@ -2072,18 +2147,18 @@
         <v>3.89</v>
       </c>
       <c r="W21">
-        <v>0.7553333333333332</v>
+        <v>0.76</v>
       </c>
       <c r="X21">
-        <v>42.494</v>
+        <v>42.49</v>
       </c>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22">
-        <v>111.78</v>
+      <c r="B22" t="s">
+        <v>69</v>
       </c>
       <c r="C22">
         <v>111.78</v>
@@ -2131,7 +2206,7 @@
         <v>280</v>
       </c>
       <c r="R22">
-        <v>11.5625</v>
+        <v>11.56</v>
       </c>
       <c r="S22">
         <v>1.77</v>
@@ -2146,18 +2221,18 @@
         <v>1.76</v>
       </c>
       <c r="W22">
-        <v>0.7553333333333332</v>
+        <v>0.76</v>
       </c>
       <c r="X22">
-        <v>42.494</v>
+        <v>42.49</v>
       </c>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" t="s">
         <v>45</v>
       </c>
-      <c r="B23">
-        <v>79.56</v>
+      <c r="B23" t="s">
+        <v>70</v>
       </c>
       <c r="C23">
         <v>79.56</v>
@@ -2205,7 +2280,7 @@
         <v>242.97</v>
       </c>
       <c r="R23">
-        <v>11.5625</v>
+        <v>11.56</v>
       </c>
       <c r="S23">
         <v>-11.97</v>
@@ -2220,18 +2295,18 @@
         <v>-11.6</v>
       </c>
       <c r="W23">
-        <v>0.7553333333333332</v>
+        <v>0.76</v>
       </c>
       <c r="X23">
-        <v>42.494</v>
+        <v>42.49</v>
       </c>
     </row>
     <row r="24" spans="1:24">
       <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="B24">
-        <v>119.63</v>
+      <c r="B24" t="s">
+        <v>71</v>
       </c>
       <c r="C24">
         <v>119.63</v>
@@ -2279,7 +2354,7 @@
         <v>180.64</v>
       </c>
       <c r="R24">
-        <v>11.5625</v>
+        <v>11.56</v>
       </c>
       <c r="S24">
         <v>-27</v>
@@ -2294,18 +2369,18 @@
         <v>-25.01</v>
       </c>
       <c r="W24">
-        <v>0.7553333333333332</v>
+        <v>0.76</v>
       </c>
       <c r="X24">
-        <v>42.494</v>
+        <v>42.49</v>
       </c>
     </row>
     <row r="25" spans="1:24">
       <c r="A25" t="s">
         <v>47</v>
       </c>
-      <c r="B25">
-        <v>179.91</v>
+      <c r="B25" t="s">
+        <v>72</v>
       </c>
       <c r="C25">
         <v>179.91</v>
@@ -2353,7 +2428,7 @@
         <v>425.4</v>
       </c>
       <c r="R25">
-        <v>11.5625</v>
+        <v>11.56</v>
       </c>
       <c r="S25">
         <v>10.96</v>
@@ -2368,18 +2443,18 @@
         <v>10.65</v>
       </c>
       <c r="W25">
-        <v>0.7553333333333332</v>
+        <v>0.76</v>
       </c>
       <c r="X25">
-        <v>42.494</v>
+        <v>42.49</v>
       </c>
     </row>
     <row r="26" spans="1:24">
       <c r="A26" t="s">
         <v>48</v>
       </c>
-      <c r="B26">
-        <v>194.47</v>
+      <c r="B26" t="s">
+        <v>73</v>
       </c>
       <c r="C26">
         <v>194.47</v>
@@ -2427,7 +2502,7 @@
         <v>531.41</v>
       </c>
       <c r="R26">
-        <v>11.5625</v>
+        <v>11.56</v>
       </c>
       <c r="S26">
         <v>11.84</v>
@@ -2442,10 +2517,10 @@
         <v>11.75</v>
       </c>
       <c r="W26">
-        <v>0.7553333333333332</v>
+        <v>0.76</v>
       </c>
       <c r="X26">
-        <v>42.494</v>
+        <v>42.49</v>
       </c>
     </row>
   </sheetData>
